--- a/Projeto final/dataset.xlsx
+++ b/Projeto final/dataset.xlsx
@@ -5,21 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\OneDrive\Udacity\Nanodegree Machine Learning\Projeto final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuri.campolongo\OneDrive\Udacity\Nanodegree Machine Learning\Projeto final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="375" documentId="8_{FF629C78-2AD1-4DEE-B793-819C9F6579E4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{C326AA9D-7A96-4B13-A71B-CE0045F844A4}"/>
+  <xr:revisionPtr revIDLastSave="385" documentId="8_{FF629C78-2AD1-4DEE-B793-819C9F6579E4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{D47100C5-5716-4FE7-8D98-FBF594046473}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="0" windowWidth="19380" windowHeight="8115" xr2:uid="{93AAC670-1CEA-4E62-BE3A-5FD4431478D8}"/>
+    <workbookView xWindow="5550" yWindow="0" windowWidth="19380" windowHeight="8115" activeTab="1" xr2:uid="{93AAC670-1CEA-4E62-BE3A-5FD4431478D8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">Planilha2!$A$1:$B$173</definedName>
+    <definedName name="DadosExternos_1" localSheetId="1" hidden="1">Planilha2!$A$1:$B$173</definedName>
   </definedNames>
   <calcPr calcId="179016"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="185">
   <si>
     <t>Texto</t>
   </si>
@@ -462,21 +466,6 @@
     <t>Gostara de um orçamento para chat</t>
   </si>
   <si>
-    <t>Gostara de um orçamento para email</t>
-  </si>
-  <si>
-    <t>Gostara de um orçamento para chatbot</t>
-  </si>
-  <si>
-    <t>Gostara de um orçamento para ura</t>
-  </si>
-  <si>
-    <t>Gostara de um orçamento para discador</t>
-  </si>
-  <si>
-    <t>Gostara de um orçamento para FAQ</t>
-  </si>
-  <si>
     <t>Valores dos sistemas da empresa</t>
   </si>
   <si>
@@ -589,13 +578,31 @@
   </si>
   <si>
     <t>Enviar Torpedos para uma lista de clientes</t>
+  </si>
+  <si>
+    <t>Contagem de Texto</t>
+  </si>
+  <si>
+    <t>Gostaria de um orçamento para email</t>
+  </si>
+  <si>
+    <t>Gostaria de um orçamento para chatbot</t>
+  </si>
+  <si>
+    <t>Gostaria de um orçamento para ura</t>
+  </si>
+  <si>
+    <t>Gostaria de um orçamento para discador</t>
+  </si>
+  <si>
+    <t>Gostaria de um orçamento para FAQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,6 +631,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -646,7 +661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -664,6 +679,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -690,8 +707,1825 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[dataset.xlsx]Planilha3!Tabela dinâmica5</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Contagem de Texto por Categoria</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha3!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha3!$A$4:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>CHAT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CHATBOT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>COST</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DISCADOR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ME_ATENDE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MULTI_CHANNEL</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PRODUTO</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SMS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TRIAL</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>URA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>VOS_PCI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha3!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F7E6-4352-ADA1-7C924E3862E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1097100416"/>
+        <c:axId val="1097100744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1097100416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1097100744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1097100744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1097100416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6CF85F-D9E6-4748-89AC-8E9025E1E6A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yuri Campolongo" refreshedDate="43195.694974768521" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="172" xr:uid="{6A5A80B0-9080-4D2E-AE66-77506523C939}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="dataset"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Texto" numFmtId="0">
+      <sharedItems containsBlank="1" longText="1"/>
+    </cacheField>
+    <cacheField name="Categoria" numFmtId="0">
+      <sharedItems count="11">
+        <s v="CHAT"/>
+        <s v="CHATBOT"/>
+        <s v="COST"/>
+        <s v="DISCADOR"/>
+        <s v="ME_ATENDE"/>
+        <s v="MULTI_CHANNEL"/>
+        <s v="PRODUTO"/>
+        <s v="SMS"/>
+        <s v="TRIAL"/>
+        <s v="URA"/>
+        <s v="VOS_PCI"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="172">
+  <r>
+    <s v="sendo assim gostaria de obter informação referente como trabalhar via chat"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Esse chat é de vocês? Então estou acessando via Iphone"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Gostaríamos de implementar uma ferramenta de chat online"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="estou levantando algumas informações sobre plataformas de chat e gostaria de saber se o chat da Voxage possui api de integração para app mobile há custo para o desenvolvimento?"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Gostaria de saber se a empresa desenvolve sistema via web chat para Call Center"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="solução inteligente de envio e recebimento de mensagens instantâneas entre o cliente e o atendente, tornando o atendimento prático e ágil."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="ferramenta é o Word Spotting, que permite cadastrar um dicionário de palavras-chave que denotem sentido positivo ou negativo. Na ocorrência de algumas delas durante o atendimento, a supervisão é instantaneamente informada"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Gostaria de saber se consigo integrar o atendimento de chat com o site da minha empresa"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Quero fornecer atendimento via texto para meus clientes"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Quero fornecer atendimento de conversa de texto do cliente com meus atendentes"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Quero fornecer atendimento de mensagens instântaneas"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Gostaria de um sistema de atendimento similar ao Whatsapp"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Gostaria de um sistema de atendimento que permita transferência de arquivos"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Gostaria de um sistema de atendimento de texto que permita transferência para outras áreas da empresa"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Sistema de atendimento de chat que possua integração"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Atendimento via chat online com atendentes"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Sistema de webchat online"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Sistema de webchat com controle de filas"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="A empresa de vocês possue sistema de atendimento de chat"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Li no site de vocês, que desenvolvem atendimento via chat. Gostaria de saber, como funciona. Poderia me dar mais detalhes desse serviço? Obrigado."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="gostaria de mais informações sobre chat de atendimento inteligentes onde nao seja necessário envolvimento humano no atendimento"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Gostaria de saber se a VoxAge oferece serviço de chat online com chatbot"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Adiantando, gostaria de saber se a VoxAge oferece serviço de chat online com chatbot"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="estou avaliando algumas soluções de chat bot e vi que sua empresa dispõe desta solução.."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Então, gostaria de saber se vocês tem chat automatizado?"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=" Vocês possuem soluções de atendimento ao cliente como: chats automatizados ou algum painel de gerenciamento de chamados?"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="e tbm o chat automatizado"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="o chat é um canal de atendimento muito importante, que pode ficar ainda mais interessante quando ele se torna um autoatendedor."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v=" cujo usuário conseguirá se guiar dentro das respostas do chat sem qualquer necessidade de intervenção humana."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Atendimento via chat inteligente"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Atendimento via chat com inteligência artificial"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Atendimento de chat sem a intervenção humana"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Atendimento de chat sem a necessidade de uma atendente real"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Atendimento de chat sem a necessidade de uma pessoa"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Identificação das necessidades do cliente automaticamente via chat"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Gostaria de um chatbot na minha empresa"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Robôs de atendimento de chat"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Atendimento de chat onlie inteligente e automático"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Atendimento de chatbot inteligente sem intervenção humana"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Ganho de produtividade, otimização do tempo e cliente satisfeito, deixando o atendente humano disponível para atuar nas frentes mais complexas ou necessárias dentro da central de atendimento."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="vocês possuem ferramenta de FAQ?"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Estava procurando por FAQ Inteligente no google e encontrei a empresa VOXAGE, tem algum cliente que utiliza esta ferramente para eu dar uma olhada? E gostaria de saber o preço analisar se vale a pena eu adquirir na minha empresa."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Gostaria de saber se vocês trabalham com agente virtual?"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="quanto custa o produto?"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Quanto custa o sistema de Chat?"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Quanto custa o sistema de Email?"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Gostara de um orçamento para chat"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Gostara de um orçamento para email"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Gostara de um orçamento para chatbot"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Gostara de um orçamento para ura"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Gostara de um orçamento para discador"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Gostara de um orçamento para FAQ"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Valores dos sistemas da empresa"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Existe uma tabela de valores?"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Orçamento do sitema da voxage."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Preço dos sistemas da voxage"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Gostaria de um orçamento para a minha empresa"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Quanto custa o sistema de Chatbot?"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="gostaria de saber como funciona o processo de implementação e os valores para tal"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Quanto custa o sistema de Discador"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Quanto custa o sistema de FAQ"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Quanto custa o sistema de URA?"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Eu gostaria de receber o catalogo de serviço da empresa e o orçamento de cada serviço no email."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Gostaria de saber, como funciona e qual é o custo do discador automático de vocês?"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="voces trabalham com discador?"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Há reagendamento de ligação na discagem automática?"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Separar discagem por tipo de campanha"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Discagens automáticas para uma base de cliente"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Discar para vários numeros automaticamente "/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Discar para vários clientes automaticamente"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Discar para uma base de dados automaticamente"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Realizar discagens automáticas"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Realizar discagens e transferir as chamadas"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Discagens para realizar cobranças de clientes"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Discagens para realizar pesquisa de satisfação"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Discagens para ofertas promocionais"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Parametrizar discangens para os clientes"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Relatórios sobre discagem de campanha"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Estou interessado em Discagem automática"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="gostaria de saber se vocês possuem algum serviço de discador?"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="gostaria de saber se a VoxAge disponibiliza uma plataforma de Discador Automático?"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v=" automatizar as discagens e ainda, de forma inteligente, distribuir as chamadas"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="solução perfeita para auxiliar a sua empresa em diversas atividades: vendas, logística, cobrança, pesquisa de satisfação, lançamento de produtos ou ofertas promocionais, campanhas de fidelização e gerenciamento do relacionamento com o cliente, mobile marketing e avisos importantes aos clientes."/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v=" quero falar sobre o app ME ATENDE"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="gostaria de saber como funciona o ME ATENDE. Vi que vocês tem a opção de criação de um APP exclusivo para minha empresa e podemos também utilizar o ME ATENDE como empresa parceira."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Aplicativo de celular para atendimento"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Aplicativo com atendimento automatizado"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Solicitação de retorno de chamada via aplicativo"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Gostaria de fornecer um atendimento via aplicativo de celular para minha empresa"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="atendimento via aplicaitivo iPhone e Android"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Integrar o aplicativo com o aplicativo da minha empresa"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Gostaria de entender mais sobre o aplicativo Me atende"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Facilitar o atendimento do cliente via aplicativo"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Estou em busca da redução de custos usando um aplicativo de celular para atendimento"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Redução de custos via aplicativo mobile"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="atendimento mobile para os clientes"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v=" o cliente seleciona a empresa com quem deseja falar, navega em uma lista de serviços, em algumas empresas já consegue se identificar e realizar um autoatendimento, depois escolhe o que deseja e solicita a chamada ou chat da empresa."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Criar um aplicativo específico da minha empresa para atendimento"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="customizado com a identidade visual de sua empresa. E ainda, além de ter o seu próprio aplicativo, a sua empresa entrará na lista de empresas disponíveis no MeAtende. Assim, o seu cliente poderá encontrar a sua empresa pelos dois apps."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="vocês só possuem solução de voz então?"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Olá bom dia! Estava visitando o site de vcs e vi que possuem ferramentas para multicanalidade "/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="O que a VOXAGE tem de CROSSCHANNEL para me oferecer? poderia me passar um orçamento?"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Um sistema de atendimento que atenda todos os canais que tenho disponíveis hoje, e eu consiga acessar relatórios de todos esses canais em um lugar só"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Venho pesquisando bastante sobre multichannel e gostaria de saber como faço para ter mais informações sobre essa tecnologia. Podem entrar em contato comigo para maiores informações? Desde já agradeço."/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Bom dia, gostaria de um contato para conhecer melhor o produto para poder verificar a aderência do mesmo em nossa operação."/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="com quem posso falar sobre a possibilidade de conhecer a ferramenta de vcs para pequenas empresas"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Vocês possuem alguma ferramenta para monitoria do atendimento, avaliação dos atendentes?"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Tenho interesse em saber como funciona a ferramenta da VoxAge E principalmente em adquiri-la para minha empresa"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Estamos em busca de soluções completas tanto para atendimento receptivo e ativo para o nosso contact center"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Gostaria que me enviassem uma apresentação da ferramenta que possuem para SAC e Facebook para eu dar uma olhada"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Tenho uma empresa de callcenter com 20 PAs o que vocês poderia me oferecer para melhorar o meu atendimento com os clientes finais? Faço atendimento pelos canais telefone/celulares e por chat"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Sou responsável por um callcenter com 1800 PAs e gostaria de trocar a solução que tenho hoje, pois esta me causando muita dor de cabeça. Qual o cliente de vocês que tem mais de 1800 PAs? Gostaria do contato para poder conhecer a operação."/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Estou com a seguinte necessidade: Hoje os clientes inserem o CPF e o telefone no meu site, quando eles clicam em OK precisaria fazer algo para efetuar uma ligação para este cliente. Vocês tem alguma solução para suprir a minha necessidade? "/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="O sistema de vocês faz integração com qualquer plataforma? Tem alguma restrição para integrar ?"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Gostaria de entender mais sobre o que os sistemas da voxage fazem"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Gostaria de mais informações sobre o VosCenter"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Queria saber mais sobre o VosCenter e os outros serviços"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Gostaria de uma apresentação dos seus produtos"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Estou interessado nas soluções que vocês desenvolvem. Onde consigo maiores detalhes de cada serviço que vocês desenvolvem ? Tem alguns cases que eu possa ver?"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Estou abrindo uma empresa de cobrança. Vocês possuem alguma tecnologia que abrange todo o gerenciamento de uma central de atendimento? Se sim, podem entrar em contato comigo por favor? Meu numero é: 11111111111"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Gostaria de uma mini central de atendimento.  É possivel ou existe uma quantidade mínima que é exigida para que vocês possam prestar serviço?"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Contratei o envio de SMS de voces."/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Gostaria do envio de mensagens de texto"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Enviar mensagem de texto para meus clientes"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Preciso enviar milhares de SMS hoje"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Gostaria de um sistema para o envio de torpedos"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Enviar torpedos para meus clientes"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Enviar Torpedos para uma lista de clientes"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Enviar SMS para uma lista de clientes"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Preciso enviar milhares de torpedos hoje"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Preciso enviar 5 mil SMS hoje."/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Olá, eu estou elaborando uma campanha para um cliente nosso e gostaria de orçamento para disparo de sms para esta campanha."/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v=" portal online de envio de mensagens de texto. "/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Sua principal característica é a capacidade para envios de grandes volumes de mensagens, permitindo a integração através de HTTPS ou WebService com os mais diversos produtos de gestão ERP, CRM, entre outros"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="O SMS Center conta com funcionalidades importantes, tais como: controle de agendamento para envios, reagendamentos, campos dinâmicos, importação e manipulação de arquivo, captura de respostas de mensagens e ainda oferece relatórios de envios e financeiro, tudo online."/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Existe uma forma de pré-visualizar a ferramenta?"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Gostaria de um preview da ferramenta"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Há alguma forma de testar o sistema para verificar se atende a necessidade?"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Existe um período de testes antes de assinar contrato?"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Gostaria de testar a ferramenta de vocês"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="ola, voces possuem algum trial da ferramenta?"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="tenho uma pequena empresa e gostaria de fazer o trial para ver como é o atendimento"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="como consigo uma cotação para uma ura de atendimento"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Estou montando uma empresa, quero saber o valor da ura ativa"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Preciso de uma URA para um PABX simples"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="gostaria de receber informações sobre o autoatendimento para URA"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Boa tarde. Gostaria de solicitar um orçamento de URa e discador para nossa empresa"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Boa tarde, preciso de uma proposta comercial para ura inteligente"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Gostaria de receber mais informações à respeito do IVR"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Boa tarde. Gostaria de maiores informações sobre a Ura humanizada"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Voces trabalham com ligacao automatizada com direcionamento para cal center"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Pedir para cliente digitar no telefone os dados dele e eu ver na tela?"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="atendimento automatico de telefone fixo que direcione o cliente para o departamento que ele deseja."/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Precisaria de algumas informações pode me passar por favor? referente a Ura"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Boa tarde, estou efetuando cotação para utilização de uma ura "/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Atendimento automatico e direcionamento para os departamentos"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="URA Inteligente"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Estou iniciando um processo de concorrência para automatização de nossa URA de suporte técnico e gostaria de um e-mail comercial da Voxage para que eu possa encaminhar a RFQ"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Em relação as interações com a URA, elas podem ser feitas tanto por DTMF (digitação do teclado do telefone) como por reconhecimento de voz, "/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Vi que vocês possuem um discador. Como funciona essa tecnologia? Podem me detalhar por favor? Obrigado."/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Boa tarde.Quero informações sobre o VOS PCI E como funciona o serviço,é cobrado por transação?"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Bom dia Ana Paula, eu vi a solução VOS PCI de vocês através da internet"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Gostaria de saber mais detalhes sobre a tecnologia de vocÊs permitem captar dados sigilosos, quer sejam de cartão de crédito ou qualquer outro dado por meio do telefone."/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Estamos buscando uma ferramenta que nos possibilite receber o pagamento de boletos de internet e telefonia através de cartão de crédito e precisamos entender como funcionam as ferramentas oferecidas por vocês para que possamos registrar os dados dos cartões dos Clientes com segurança"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Vou cadastrar cliente via fone grava conversas e pedir para cliente digitar rg cpf"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="O VOS PCI ELE É LIGADO AO COMPUTADOR JUNTO COM A MAQUINA DE CARTÃO DE CREDITO ESTAMOS IMPLANTANDO NA NOSSA EMPRESA VENDAS POR TELEFONE E BUSCAMOS UMA FORMA SEGURA PARA NOSSOS CLIENTES"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Vi que vocês tem um serviço que otimiza a compra com cartão de crédito via telefone, o VOS PCI"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Gostaria de um sistema para coletar informações sigilosas dos meus clientes"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Vocês fornecem alguma funcionalidade para obter dados privados dos usuários"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Como eu conseguiria evitar fraudes com informações de sigilo dos meus clientes"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="uma solução que permite coletar dados sigilosos do cliente, como os dados do cartão de crédito, por meio do teclado do telefone, sem que o operador tenha acesso a estes dados"/>
+    <x v="10"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B3CD62F6-5193-4B7D-A93C-3A8E8CA8C947}" name="Tabela dinâmica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de Texto" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -1011,11 +2845,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5D4EF8-C0C1-4821-9243-157FB0FE3E21}">
+  <dimension ref="A3:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FB9D3C-048F-49F1-8C2F-F160E3544BF6}">
-  <dimension ref="A1:B173"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E135" sqref="E134:E135"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,7 +3360,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>15</v>
@@ -1418,7 +3368,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>15</v>
@@ -1426,7 +3376,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>15</v>
@@ -1434,7 +3384,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>15</v>
@@ -1442,7 +3392,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>15</v>
@@ -1450,7 +3400,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>15</v>
@@ -1458,7 +3408,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>15</v>
@@ -1466,7 +3416,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>15</v>
@@ -1474,7 +3424,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>15</v>
@@ -1482,7 +3432,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>15</v>
@@ -1536,15 +3486,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>18</v>
       </c>
@@ -1552,7 +3503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>107</v>
       </c>
@@ -1560,7 +3511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>105</v>
       </c>
@@ -1568,87 +3519,87 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>106</v>
       </c>
@@ -1656,7 +3607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>104</v>
       </c>
@@ -1714,7 +3665,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>22</v>
@@ -1722,7 +3673,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>22</v>
@@ -1730,7 +3681,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>22</v>
@@ -1738,7 +3689,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>22</v>
@@ -1746,7 +3697,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>22</v>
@@ -1754,7 +3705,7 @@
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>22</v>
@@ -1762,7 +3713,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>22</v>
@@ -1770,7 +3721,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>22</v>
@@ -1778,7 +3729,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>22</v>
@@ -1786,7 +3737,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>22</v>
@@ -1794,7 +3745,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>22</v>
@@ -1952,7 +3903,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>28</v>
@@ -1960,7 +3911,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>28</v>
@@ -1968,7 +3919,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>28</v>
@@ -1976,7 +3927,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>28</v>
@@ -2016,7 +3967,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>35</v>
@@ -2024,7 +3975,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>35</v>
@@ -2032,7 +3983,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>35</v>
@@ -2040,7 +3991,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>35</v>
@@ -2048,7 +3999,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>35</v>
@@ -2056,7 +4007,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>35</v>
@@ -2064,7 +4015,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>35</v>
@@ -2072,7 +4023,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>35</v>
@@ -2418,7 +4369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C834B8-1132-481B-B85A-B57A4A32E373}">
   <dimension ref="A1"/>
   <sheetViews>
